--- a/毕设/预测结果.xlsx
+++ b/毕设/预测结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="13380"/>
+    <workbookView windowWidth="15360" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>问题</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在未知天然产物的结构解析过程中，核磁共振技术（</t>
     </r>
     <r>
@@ -176,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>什么是密度泛函理论（</t>
     </r>
     <r>
@@ -312,6 +324,2556 @@
         <charset val="134"/>
       </rPr>
       <t>核磁共振（NMR）技术可区分立体异构体。通过观测不同异构体在NMR谱图中的特征峰位、强度和形状，结合化学位移和耦合常数等参数，可准确判断异构体的空间构型，为有机化学研究提供重要信息。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有机金属化学中的氧化添加和还原消除反应是如何进行的？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氧化添加反应涉及有机金属复合物中金属中心的氧化态增加，同时形成两个新的金属-原子键。还原消除反应则是氧化添加的逆过程，金属中心的氧化态降低，伴随两个配体的脱离形成新的化学键。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有机金属化学中的氧化添加和还原消除反应是重要反应类型。氧化添加通常涉及金属与底物的氧化结合，形成新的金属键。而还原消除则是金属从底物中脱离，伴随底物的还原和官能团转化。两者相辅相成，实现有机金属化合物的合成与转化。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是生物正交反应，它在生物分子标记和检测中有何应用？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物正交反应是在生物体系中进行且不与天然生物化学过程干扰的化学反应，具有高选择性和特异性。在生物分子标记和检测中，它可实现对目标分子的标记、示踪、富集或修饰，被广泛应用于活细胞成像、药物研发及抗体药物偶联等领域。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物正交反应是指在生物体内不干扰自然生物过程的化学反应。它用于生物分子的特异性标记和检测，如荧光标记蛋白质或核酸。</t>
+    </r>
+  </si>
+  <si>
+    <t>环境有机化学中的生物富集是什么意思，它如何影响生态系统？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物富集是指在食物链中，有机污染物在生物体内的浓度逐级增加的现象。这种现象通常发生在水生生态系统中，其中污染物在水中的浓度相对较低，但在食物链的高级消费者中可以达到更高的浓度。生物富集会导致捕食者，特别是位于食物链顶端的生物，如鸟类、鱼类和哺乳动物，体内积累高浓度的有害物质，对其生存和繁殖能力造成影响。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物富集在环境有机化学中，指生物体从环境中吸收并积累低浓度有害物质的过程。这种积累可能破坏生态平衡，影响其他生物健康，甚至间接威胁人类健康。因此，对生物富集的研究和控制对维护生态系统至关重要。</t>
+    </r>
+  </si>
+  <si>
+    <t>描述有机光伏材料的工作原理。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有机光伏材料通过吸收光能来产生电流。当光照射到有机光伏材料时，材料中的π-共轭系统能够吸收光能，激发电子从价带跃迁到导带，形成电子-空穴对。这些电子-空穴对被分离并在电场作用下移动，生成电流，从而转换光能为电能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有机光伏材料工作原理为：吸收光子能量后，内部产生电子与空穴，形成电荷对。这些电荷对在给体与受体间的能带差异作用下分离，并通过导电通道传输，最终产生电流，实现光能向电能的转化。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是不对称催化，它如何影响合成策略？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不对称催化是使用手性催化剂促进反应，使得生成的产物具有偏好的手性（对映体选择性）。这种方法在合成策略中非常重要，因为它允许高效合成具有特定立体化学的复杂有机分子，对于开发药物和活性化合物具有关键意义。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不对称催化是通过使用手性催化剂实现不对称合成反应的方法，能够控制反应的立体选择性，提高产物纯度和产率。它影响合成策略，使得手性化合物的合成更为高效和精准，广泛应用于药物、农药和天然产物的合成中。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是电泳技术，它在有机分析中的应用是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电泳技术是一种基于电场作用下分子迁移速率差异的分离技术。在有机分析中，它用于分离和分析大小、电荷或构型不同的有机分子，如核酸、蛋白质和小分子。电泳可以进行物种的定性和定量分析，特别适用于生物大分子的分离和鉴定。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电泳技术是利用带电粒子在电场中移动速度不同而达到分离的技术。在有机分析中，电泳技术可高效分离和纯化有机物，如蛋白质、核酸等，同时可分析其结构、大小及电荷差异，为有机化学研究提供有力工具。</t>
+    </r>
+  </si>
+  <si>
+    <t>同位素标记如何帮助解析复杂生物体内的信号传导途径？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同位素标记技术帮助解析生物体内的信号传导途径，通过追踪特定标记的分子可以研究信号分子的产生、分布和相互作用。这对于理解细胞如何响应环境刺激、信号如何在细胞间传递以及生物体如何调节生理过程至关重要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同位素标记通过替换生物体内特定原子，追踪其在信号传导途径中的行为。这有助于揭示信号分子间的相互作用及信号转导的动态过程，从而解析复杂生物体内的信号传导途径，为疾病诊断和治疗提供重要依据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如何使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>射线晶体学来确定有机固态结构？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X射线晶体学确定有机固态结构主要基于X射线衍射原理。当X射线穿过晶体时，其与原子相互作用产生衍射，通过测量衍射角度和强度，可解析晶体结构，进而了解有机固态的原子排列和组成。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X射线晶体学通过分析X射线衍射模式来确定晶体结构。在有机固态化学中，它用于揭示分子的三维排列和分子间作用，对理解材料的性质和功能至关重要。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何设计和应用小分子开关来控制生物分子的活性？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计小分子开关来控制生物分子活性涉及合成能够响应特定刺激（如光、pH、温度）的小分子。这些开关能够可逆地调控靶蛋白的活性或相互作用，用于研究生物过程和开发新的治疗策略。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计和应用小分子开关控制生物分子活性，需明确目标生物分子的结构特点与功能机制。通过合理设计，使小分子开关与目标分子特异性结合，通过可逆的构象变化调控其活性，实现精准调控生物过程的目标。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是超分子聚合物，它们与传统聚合物有何不同？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超分子聚合物是通过分子间的非共价相互作用形成的聚合物，而传统聚合物则通过共价键连接。超分子聚合物的特点是可逆性、动态性和自愈合能力，它们在刺激响应、自修复材料和生物医学等领域有应用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超分子聚合物是通过可逆的非共价键相互作用连接的阵列聚合物，具有动态响应性、可逆性和自修复特性。传统聚合物则是通过共价键连接的。超分子聚合物避免了复杂的合成过程，可直接调节单体比例改变其结构和性能，在智能材料等领域有广泛应用。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何利用动态共价化学构建自修复材料？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用动态共价化学构建自修复材料，关键在于引入可逆共价键，使材料在受损时能够通过化学键的动态变化实现自我修复。这种方法不仅提高了材料的耐用性，还拓展了其在各种环境下的应用潜力。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自修复材料可以通过动态共价化学反应实现，选用可逆的化学键如二硫键或烯烃亚胺键等，当材料损伤时，这些键可以断裂再连接，从而实现材料的自我修复。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是催化循环，它如何定义催化反应的效率？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>催化循环是描述催化剂在反应过程中经历的一系列步骤，从反应物吸附、反应到产物释放，并恢复催化剂活性的过程。催化反应的效率由催化循环的速率和催化剂的再利用能力决定。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>催化循环是一种化学反应过程，其中催化剂在反应中循环使用，促进反应进行并在反应结束后恢复原始状态，以便再次参与反应。催化反应的效率通常通过催化效率来定义，它衡量了催化剂提高反应速率的能力，高催化效率意味着催化剂能有效加速反应进程。</t>
+    </r>
+  </si>
+  <si>
+    <t>纳米复合材料的性质和应用有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳米复合材料具有高强度、高模量、强度与韧度同时增加以及良好的阻燃和气密性等性质。其应用广泛，涉及食品纺织业、光学器件、半导体和航空航天等行业，尤其在涂料和涂层、生物医学等领域展现出独特优势。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳米复合材料结合了纳米材料与其他材料的优点，展现出优异的力学、热学、电学和光学性能。这些材料被应用于轻质高强结构材料、导电材料、热界面材料和防护涂层等领域。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何利用化学信息学技术研究和预测化合物的光谱特性？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用化学信息学技术研究化合物的光谱特性包括利用计算化学方法模拟光谱数据、建立光谱与结构之间的关系模型，并使用机器学习算法从实验光谱数据中提取特征和预测结构。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用化学信息学技术研究和预测化合物的光谱特性，可借助先进的算法和数据库。通过对化合物结构、性质及已知光谱数据的深度分析，建立预测模型，实现光谱特性的快速预测。这有助于加速新材料的研发和优化，促进化学领域的发展。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是亲电取代反应，这类反应的特点是什么?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲电取代反应是有机化学反应的一种，指亲电试剂攻击有机化合物中的原子或原子团，进而取代它们的反应。这类反应的特点在于亲电试剂（如卤素、卤代烷、强酸等）与反应物中的亲电子基团发生取代，是合成醇、醚、酮、酯等有机化合物的重要途径。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲电取代反应是指亲电试剂攻击富电子的芳香环或多键化合物。这类反应的特点是通过形成过渡态，导致原有基团被亲电试剂替换，常见于芳香族化合物和某些不饱和化合物的化学反应。</t>
+    </r>
+  </si>
+  <si>
+    <t>在绿色有机化学中，如何有效地利用二氧化碳作为原料？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利用二氧化碳作为原料进行有机合成是绿色化学的一个重要方向。通过催化转化，二氧化碳可以被转化为有用的化学品，如甲酸、尿素和碳酸酯，从而实现资源的循环利用和减少温室气体排放。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在绿色有机化学中，有效利用二氧化碳作为原料的关键在于催化剂的选择和反应条件的优化。利用合适的催化剂，可将二氧化碳转化为有机化学品，如尿素、生物质聚合等，实现其高效利用，推动绿色化学的发展。</t>
+    </r>
+  </si>
+  <si>
+    <t>光谱分析的基本原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱分析基于物质对电磁辐射（包括可见光、紫外光、红外光等）的吸收、发射或散射特性。当物质与电磁辐射相互作用时，其内部电子、原子核或分子间的能级会发生变化，从而产生特定的光谱信号。通过测量这些信号，可以获得物质的组成、结构和其他特性的信息。例如，不同的化合物会吸收或发射不同波长的光，通过分析这些光谱数据，可以识别和量化样品中的各种成分。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱分析的基本原理是利用物质与光的相互作用产生特定的光谱现象，通过对光谱的特征进行观察和分析，获得关于物质的物理性质和化学组成的重要信息。光谱分析包括吸收光谱分析、发射光谱分析和散射光谱分析等多种方法。</t>
+    </r>
+  </si>
+  <si>
+    <t>色谱分析中最常用的固定相和移动相是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在色谱分析中，最常用的固定相包括硅胶（用于薄层色谱TLC和柱色谱）、疏水性固定相（如C18，用于反相高效液相色谱HPLC）、和聚合物（用于离子交换色谱和排阻色谱）。最常用的移动相包括水和有机溶剂（如甲醇、乙腈、己烷），以及它们的混合物。在气相色谱（GC）中，移动相通常是惰性气体，如氦或氮气。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>色谱分析中最常用的固定相主要包括聚硅氧烷、气-固固定相（如PLOT柱中的苯乙烯衍生物、氧化铝和分子筛等）以及聚乙二醇。移动相则是色谱分离过程中携带组分向前移动的物质，通常是气体或液体，其选择依赖于待分析样品的性质和分析目的。</t>
+    </r>
+  </si>
+  <si>
+    <t>电化学分析的基本原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学分析是基于物质在电极表面发生氧化还原反应时伴随的电荷转移原理。这些反应导致电流的产生，其大小和方向与反应物的浓度和性质有关。通过测量在特定电位下流过电极的电流，可以获取有关化学物质的定性和定量信息。这种分析方法依赖于电化学电池的组成，包括工作电极、参比电极和辅助电极。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学分析的基本原理是利用物质的电化学性质，通过测量化学电池中电位、电流或电量的变化来分析待测物质的组成和含量。这种方法操作简便、应用广泛，既可定性分析也可定量分析，对有机物和无机物均适用。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何使用质量分析技术进行蛋白质鉴定和定量？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过质量分析技术，尤其是结合肽段质谱分析和蛋白质数据库搜索，可以进行蛋白质鉴定。蛋白质经酶解后生成的肽段通过电喷雾或MALDI电离后，在质量分析仪中分离并检测。通过比对实验数据与数据库，可以鉴定蛋白质序列。定量分析通常通过标记（如同位素标记）或不标记（如标记自由的定量技术）方法进行。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用质量分析技术进行蛋白质鉴定和定量，常采用凝胶电泳分离不同大小的蛋白质，通过质谱分析确定其结构和分子量。定量方法则基于多重反应监测和绝对定量技术，准确测定样品中蛋白质的数量。这些技术结合使用，可实现蛋白质的精确鉴定和定量。</t>
+    </r>
+  </si>
+  <si>
+    <t>热分析的基本原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热分析是研究物质随温度变化而发生的物理和化学变化的技术。它通过测量物质的质量、尺寸、热容、模量等性质随温度变化的情况来获得材料特性。这些变化可以提供关于材料的熔点、玻璃化转变温度、热稳定性、相变、膨胀系数和其他热相关性质的信息。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热分析的基本原理是：将被研究的物质置于程序控制温度下，通过测量其物理性质与温度的关系，来分析其热稳定性、热分解过程、相变以及化学反应动力学等，进而为材料研究、产品开发及质量控制等提供重要依据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>什么是扫描电子显微镜（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SEM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），它如何用于表面分析？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SEM通过聚焦电子束扫描样品表面，产生高分辨率图像，用于分析表面形态和微观结构。通过检测电子与样品相互作用产生的二次电子和反射电子，SEM可以揭示样品的表面特征、纹理、裂纹、颗粒大小等信息。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫描电子显微镜（SEM）是一种利用高能电子束扫描样品表面的显微分析技术。它通过收集电子束与样品相互作用产生的信号，进行表面形貌、成分和晶体结构分析。SEM在材料科学、生物学、地质学和化学等领域有广泛应用，为科学研究提供重要手段。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何通过电化学方法监测细胞培养中的代谢活动？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学方法，如电化学传感器和生物传感器，可以用于实时监测细胞培养中的代谢活动，如pH变化、氧气消耗和代谢产物的生成。通过测量电流或电位的变化，可以获得关于细胞生长和代谢状态的信息。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过电化学方法监测细胞培养中的代谢活动，可设置电化学传感器，实时检测细胞释放的代谢产物如乳酸、葡萄糖等。传感器将代谢物浓度转化为电信号，从而分析细胞代谢状态。此方法快速、准确，有助于理解细胞代谢过程。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>什么是气相色谱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），它在环境分析中如何应用？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气相色谱（GC）是以气体为流动相，用于分离和分析易挥发物质的技术。在环境分析中，GC广泛应用于空气和废气监测、水质监测等，可检测挥发性有机物、重金属等污染物，为环境保护提供数据支持。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GC主要用于分析挥发性和半挥发性有机化合物，如溶剂、石油烃和持久性有机污染物（POPs）。结合质谱（MS）或其他检测器，GC可用于环境样品中这些化合物的定性和定量分析。</t>
+    </r>
+  </si>
+  <si>
+    <t>食品中防腐剂的分析方法有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食品中防腐剂的分析方法主要包括气相色谱法、高效液相色谱法、紫外光分光光度法、薄层色谱法、滴定法等。这些方法各有特点，可根据不同样品和检测要求选择合适的方法。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食品中防腐剂的分析方法包括高效液相色谱（HPLC）、气相色谱（GC）和毛细管电泳（CE）。这些技术可用于分析和定量食品中添加的防腐剂，如苯甲酸、山梨酸和硝酸盐。</t>
+    </r>
+  </si>
+  <si>
+    <t>临床分析化学的主要目的和应用是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临床分析化学的主要目的是在生物样本中定性和定量化学物质，以支持疾病的诊断、治疗和监测。它涉及血液、尿液、体液等样本的生化、药物和代谢物分析。应用包括疾病标志物的检测、药物治疗监测、代谢异常的诊断和个体化医疗方案的制定。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临床分析化学的主要目的是通过化学分析技术，对生物样本进行检测，以评估患者的健康状况、诊断疾病、监测治疗效果等。其应用广泛，涉及体液分析、药物检测、疾病诊断和监测等多个方面，为医生提供客观的诊断依据和治疗指导。</t>
+    </r>
+  </si>
+  <si>
+    <t>药物分析中常用的样品前处理技术有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药物分析中常用的样品前处理技术包括洗脱技术（如溶剂萃取、水相萃取、固相萃取等），用于去除杂质；浓缩技术，如蒸发浓缩、气相浓缩和液相浓缩，用于将分析物浓缩；以及分离技术和净化技术，用于将目标物与干扰物质分离和去除。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包括溶剂萃取、固相萃取（SPE）、蛋白质沉淀、离心和过滤等。这些技术用于提纯和富集目标化合物，去除样品中的干扰物，是确保分析准确性和灵敏度的关键步骤。</t>
+    </r>
+  </si>
+  <si>
+    <t>原子光谱分析的基本原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原子光谱分析基于原子在受激时吸收或发射特定波长的光的原理。样品被加热至高温，使元素原子化，原子在能级间跃迁时吸收或发射特征光谱。通过测量特定波长的光强度，可以定性和定量分析样品中的元素组成。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原子光谱分析的基本原理基于原子能级结构。通过测量和分析原子在不同能级间跃迁时产生的光谱信息，包括特征波长和强度，可以确定物质的组成和浓度。原子光谱分析是化学和物理领域的重要分析手段，广泛应用于科研和工业生产中。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何通过流式细胞术区分活细胞、死细胞和凋亡细胞？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流式细胞术可通过特定标志物或染料区分活细胞、死细胞和凋亡细胞。活细胞可被特定荧光染料标记；死细胞产生非特异性荧光，强度通常较强；凋亡细胞则可通过annexin V等标志物识别。流式细胞术结合这些特征，可准确区分不同细胞状态。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过使用不同的染料如安尼克丁琥珀酰亚胺（Annexin V）、碘化丙啶（PI）或7-氨基放线菌素（7-AAD），可以区分活细胞（未染色或仅标记表面蛋白）、死细胞（标记PI或7-AAD）和凋亡细胞（标记Annexin V）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>原子力显微镜（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AFM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）用于纳米材料分析的原理是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原子力显微镜（AFM）通过在样品表面移动非接触式探针，测量探针与样品之间的相互作用力，从而获得样品表面的形貌和性质信息。在纳米材料分析中，AFM可用于观察纳米尺度下的表面形貌、表面粗糙度、力学性质等，具有高分辨率和高灵敏度。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原子力显微镜（AFM）用于纳米材料分析的原理是：利用微悬臂上的针尖与样品表面原子间的微弱相互作用力，通过扫描时控制这种力的恒定，检测微悬臂的形变量，进而获取纳米材料表面形貌结构和力学、电学等性质的信息。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何使用高通量分析进行化学成分分析？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用高通量分析进行化学成分分析主要依赖于质谱、核磁共振（NMR）谱和高效液相色谱（HPLC）等技术。通过这些技术，可以对大量样本中的化学成分进行快速鉴定和定量。质谱技术尤其适用于复杂样本中未知化合物的鉴定和结构分析。高通量质谱分析，结合液相色谱分离（LC-MS）或气相色谱分离（GC-MS），能够提供化合物的精确质量和碎片图谱，有助于化学成分的识别和结构推断。NMR技术则可以提供分子的结构信息，用于复杂混合物中成分的鉴定。通过自动化样品处理和数据分析流程，高通量分析方法能够大幅提升化学成分分析的效率和覆盖范围，广泛应用于药物开发、食品安全和环境监测等领域。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用高通量分析进行化学成分分析，通常涉及自动化样品处理、高效分离技术和灵敏检测手段的结合。通过高通量分析平台，可以快速处理大量样品，并行分析多种化学成分，提供准确、可靠的数据支持，加速科研和产品开发进程。</t>
+    </r>
+  </si>
+  <si>
+    <t>化学传感器的基本工作原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化学传感器工作原理基于特定化学物质与传感器材料之间的相互作用，从而引起传感器的物理或化学性质变化。这些变化可能是电导率、电位、吸光度或质量的变化，通过这些变化可以定量或定性地检测目标分析物。传感器的响应与分析物的浓度成正比，从而实现对特定化学物质的检测。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化学传感器的基本工作原理是通过传感元件与目标化合物发生特定的化学反应，进而引发物理或化学性质的变化，如电阻、光强等。随后，信号转换元件将这些变化转换成可测量的信号，从而确定目标化合物的存在和浓度。</t>
+    </r>
+  </si>
+  <si>
+    <t>在化学计量学中，什么是质量控制和质量保证？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在化学计量学中，质量控制指的是通过一系列的测量和监控过程来确保化学产品和过程满足预定的质量标准。质量保证则是包括质量控制在内的更广泛的管理过程，旨在保证整个生产过程的质量和可靠性。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在化学计量学中，质量控制旨在确保实验数据的准确性和可靠性，通过一系列活动来评估和优化实验过程，以达到规定的质量要求。而质量保证则是提供客观证据证明已达到规定的质量要求，侧重于确保实验过程的安全性和合规性。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>同位素稀释分析与质谱联用技术（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LC-MS/MS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的结合有何优势？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同位素稀释分析与质谱联用技术结合时，可以充分利用质谱的高灵敏度和高选择性，与同位素稀释法的高精度定量能力相结合，实现复杂样品中目标化合物的精确定量，尤其适用于痕量和超痕量分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同位素稀释分析与质谱联用技术的结合具有显著优势：提高了分析的准确性和灵敏度，减少了复杂样品中干扰物质的影响，同时利用质谱的高分辨率和特异性，实现了对目标化合物的精准定量和定性分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SFC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的主要应用领域有哪些？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SFC（系统为控制）系统的主要应用领域包括汽车、航空航天、电子和机械制造等机械工程领域。在这些领域中，SFC系统可以帮助设计师和工程师创建高质量的设计方案，提高设计效率和产品质量。此外，SFC在药物分析、食品和天然药物等领域也有广泛的应用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SFC的主要应用领域包括药物分析、食品分析、环境污染物分析、天然产物的分离和纯化、以及化学品和石油产品的分析等。</t>
+    </r>
+  </si>
+  <si>
+    <t>微流控分析技术的基本原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微流控分析技术基于微型化的流体操控原理，通过精密的流道设计和控制系统在芯片尺度上精确操控流体的流动、混合、分离和反应。这种技术能够在极小的空间内实现快速、高效的化学和生物分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微流控分析技术的基本原理是通过微米级通道和微流体控制元件对微流体进行精确控制和操作，实现对微流体的分离、混合、输运等功能。这种技术具有高灵敏度、高准确度和高重复性的特点，广泛应用于生物医学等领域。</t>
+    </r>
+  </si>
+  <si>
+    <t>单分子检测的基本原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单分子检测基于直接观察和分析单个分子的行为和特性，而不是平均大量分子的集体行为。这种方法依赖于高灵敏度的检测技术，如荧光光谱、原子力显微镜等，以实现对单个分子状态、动态和相互作用的精确测量。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单分子检测的基本原理是基于单个分子的特性，利用高度敏感的检测技术和方法，实现单个分子的识别、计数和定量分析。通过对单个分子的研究，可以更深入地了解分子间的相互作用和反应机制，为科学研究提供有力支持。</t>
+    </r>
+  </si>
+  <si>
+    <t>在声学波分析中，不同类型的声波（如纵波、横波、表面波）有何应用？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同类型的声波在声学波分析中有各自的应用。纵波主要用于测量材料的密度和弹性模量；横波能提供剪切模量信息，适用于评估材料的剪切性质；表面波常用于表面或近表面缺陷的检测，以及测量薄膜等表面层材料的性质。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在声学波分析中，纵波主要用于钢板和锻件的检测；横波主要应用于焊缝和钢管检测；表面波则在材料表面的细微缺陷检测中发挥作用。不同类型的声波具有不同的传播特性和应用范围，能够满足不同领域的检测需求。</t>
+    </r>
+  </si>
+  <si>
+    <t>离子迁移谱与质谱的区别和联系是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离子迁移谱（IMS）和质谱（MS）都是基于离子检测的技术，但IMS通过离子在电场中的迁移速度进行分析，而MS则是通过测量离子的质荷比（m/z）。两者可以联用，IMS提供快速的离子分离能力，而MS提供精确的质量分析，二者联用可以提高分析的灵敏度和选择性。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离子迁移谱与质谱在原理上有相似之处，都需先对目标物离子化并检测离子。然而，它们的离子分离原理不同：离子迁移谱利用离子的淌度分离，而质谱则基于离子的质荷比。此外，离子迁移谱在工作环境和检测速度等方面具有独特优势。两者可结合使用，提高分析的灵敏度和选择性。</t>
+    </r>
+  </si>
+  <si>
+    <t>毛细管电泳中的检测方法有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毛细管电泳中的检测方法主要包括光吸收法、电化学法、电导法、化学发光法、荧光法以及质谱等。其中，紫外-可见吸收检测法因其通用性好、操作简单等特点，成为最常用的检测方法。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毛细管电泳的检测方法包括紫外检测、荧光检测、电化学检测等。选择适合的检测方法可提高分析的灵敏度和准确性。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是光声显微术，它在生物医学成像中的作用是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光声显微术结合光声效应和显微成像技术，可用于活体组织的高分辨率成像。通过检测样品吸收光子后的声波信号，实现对生物组织的多参数成像，具有很高的深度分辨率和组织穿透能力。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光声显微术是一种生物医学成像技术，通过结合超声检测和激光诱导的光声信号，生成生物组织的详细图像。它在生物医学成像中起重要作用，能够实现毛细血管级别或亚细胞级别的分辨率，对临床疾病的诊断和治疗具有重要意义。</t>
+    </r>
+  </si>
+  <si>
+    <t>配位键是如何形成的？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配位键是由一个原子单方面提供一对电子与另一个接受电子的原子共用而形成共价键。具体而言，当共价键中共用的电子对由其中一个原子独自供应，而另一个原子提供空轨道时，就形成配位键。成键的两原子间共享的两个电子不是由两原子各提供一个，而是来自一个原子。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配位键是一种化学键，由配体的孤对电子与中心金属离子的空轨道共享形成。这种键具有典型的共价键特性，但电子主要来源于配体。</t>
+    </r>
+  </si>
+  <si>
+    <t>重金属暴露对人体健康有哪些潜在影响？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重金属暴露对人体健康的潜在影响包括：神经系统毒性，导致头痛、记忆力减退等；肾脏损伤，引发炎症反应；血液系统毒性，造成贫血；生殖系统毒性，影响生育能力；免疫系统抑制，增加感染风险。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重金属如铅、汞和砷的暴露可能对人体健康产生负面影响，包括神经系统损害、器官功能障碍和致癌风险。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如何使用固体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NMR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术研究材料的分子结构？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用固体NMR技术研究材料的分子结构，可以分析固体NMR谱图，获取分子内部的化学位移、化学键的长度和角度等信息，从而确定化合物的化学结构和连接方式。此外，该技术还能研究分子动力学行为，揭示材料性质和功能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固体NMR（核磁共振）技术可以提供材料内部原子的环境和相互作用信息，用于分析无定形和晶态固体的分子结构、动力学和化学环境。</t>
+    </r>
+  </si>
+  <si>
+    <t>纳米催化剂的原理是什么，它们有何优势？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳米催化剂的原理在于其超小的粒径赋予其高比表面积和表面能，增强了反应活性，优化了催化性能。优势在于提高反应效率、降低反应温度、增强选择性，且可细化反应产物，提高产品质量，减少副反应。因此，纳米催化剂在诸多领域具有广阔应用前景。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳米催化剂具有高比表面积和独特的电子性质，增强了催化活性和选择性，用于化学合成、环境治理和能源转换。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是晶格和晶胞？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晶格是指由原子、离子或分子按照一定规律有序排列构成的结构，它是晶体结构的基础。而晶胞则是构成晶体的最基本的几何单元，其形状、大小与空间格子的平行六面体单位相同，能够反映晶体内部原子或离子在三维空间的化学-结构特征。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晶格是描述晶体中原子或分子排列的三维点阵，晶胞是晶格中最小的重复单元，其几何形状和尺寸定义了晶体的对称性和结构。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在制备金属有机框架（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MOFs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）材料时，无机合成化学的作用是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在制备金属有机框架（MOFs）材料时，无机合成化学发挥了关键作用。它选择合适的金属离子和有机配体，通过精确控制反应条件和合成方案，调节MOFs的形貌和晶体结构，进而调控其表面积和孔隙结构，为MOFs的功能化合成提供支持。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在制备MOFs时，无机合成化学通过选择适当的金属中心和有机配体，控制合成条件如溶剂、温度和时间，合成具有特定孔隙结构和功能性的MOFs。</t>
+    </r>
+  </si>
+  <si>
+    <t>电化学的基本原理是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学研究化学反应与电流之间的关系，主要原理是通过电解过程实现化学能与电能的转换。在电化学过程中，还原和氧化反应分别在电池的两个电极上发生，导致电荷通过外部电路从一个电极传输到另一个电极。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学的基本原理包括电场作用下电荷转移的化学反应，涉及电势差、离子生成与消失速率、电子与离子的转移等。动力学原理研究反应速率与电势差、温度、溶液浓度等因素的关系。此外，还包括线性电化学原理，即研究电流与电势之间的线性关系。</t>
+    </r>
+  </si>
+  <si>
+    <t>超分子无机化合物的主要合成方法有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超分子无机化合物的合成方法包括溶液相法、溶剂热法、层层组装法和自组装方法，这些方法依赖于精确控制反应条件和分子间相互作用来构建复杂结构。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超分子无机化合物的主要合成方法包括溶液自组装法、模板法、水热/溶剂热法以及共价键合法等。这些方法通过精确控制反应条件和分子间相互作用，构建具有特定结构和功能的超分子无机化合物，为材料科学和化学领域的发展提供重要支撑。</t>
+    </r>
+  </si>
+  <si>
+    <t>磁性材料的基本分类有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁性材料主要分类为铁磁性、顺磁性、反铁磁性、亚铁磁性和铁电磁性材料。铁磁性材料在外磁场移除后仍保持磁化；顺磁性材料在外磁场作用下表现磁性；反铁磁性材料中相邻原子的磁矩反向排列；亚铁磁性材料显示出复杂的磁矩排列。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁性材料的基本分类主要包括铁磁性材料、顺磁性材料、抗磁性材料，以及亚铁磁性材料和反铁磁性材料。其中，铁磁性材料在外磁场作用下具有明显磁化强度和磁化方向，如铁、钴、镍等金属及其合金。其他类型材料则具有不同程度的磁响应特性。</t>
+    </r>
+  </si>
+  <si>
+    <t>无机光化学中的能量转移过程是如何进行的？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无机光化学中的能量转移过程主要通过激发态分子与基态分子间的相互作用实现。当激发态分子与基态分子接近时，能量以非辐射形式从激发态分子转移到基态分子，完成能量转移过程。这一过程受分子间距离、取向及能量匹配程度等因素的影响。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在无机光化学中，能量转移涉及从一个分子或原子的激发态到另一个分子或原子的过程，常见于发光材料和光催化剂。这种转移可以是辐射的（发光）或非辐射的（能量传递）。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何提高无机光伏材料的能量转换效率？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高无机光伏材料的能量转换效率可以通过优化带隙、增强光吸收和提高载流子分离效率实现。开发新型半导体材料，如钙钛矿结构和量子点，以及采用异质结构和表面钝化技术是关键策略。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高无机光伏材料的能量转换效率，可以通过优化材料结构、改善表面形态、减少反射损失、降低热损失等方式实现。同时，选择高效的光伏电池、加强反光层、降低温度等措施也能有效提升光伏材料的能量转换效率。</t>
+    </r>
+  </si>
+  <si>
+    <t>在计算无机化学中，什么是非共价相互作用？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非共价相互作用是指分子间或分子内部，凭借一种分散变化的电磁力来维系一定空间结构的作用。这种作用不涉及电子的共用，而是包括静电相互作用、π共轭效应、范德华力以及疏水效应等多种类别。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在计算无机化学中，非共价相互作用如氢键、范德华力和离子键等的研究有助于理解分子间的稳定结构、配合物的形成和材料的性质。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何区分无机反应的不同类型（如配位、氧化还原、酸碱反应）？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配位反应涉及配体与中心金属离子的结合与解离；氧化还原反应涉及电子得失，元素化合价升降；酸碱反应则涉及氢离子与氢氧根离子的结合，生成水。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无机反应可以基于反应性质分为配位、氧化还原和酸碱反应。配位反应涉及配体和金属中心的结合，氧化还原反应涉及电子转移，酸碱反应涉及质子转移。</t>
+    </r>
+  </si>
+  <si>
+    <t>环境中铅污染的来源和影响，以及去除技术有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境中铅污染主要来源于工业排放、燃料燃烧及含铅制品的使用等。其影响包括损害人体健康、破坏生态系统。去除技术有重金属捕集剂法、酸洗法、活性氧化法、膜分离技术等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铅污染主要来源于工业排放、汽油添加剂和管道侵蚀。长期暴露于铅可损害神经系统。去除技术包括化学沉淀、离子交换和膜过滤。</t>
+    </r>
+  </si>
+  <si>
+    <t>无机纳米技术的基本定义是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无机纳米技术涉及在纳米尺度上（1到100纳米）制备和使用无机材料的技术。这些材料展现出与宏观尺寸材料不同的物理、化学和生物特性，主要因其尺寸小，表面积大而导致的量子效应和表面效应。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无机纳米技术是一门涉及无机纳米材料制备、性质研究及应用的科学。其基本定义是通过控制物质在纳米尺度上的结构和性能，实现无机材料在特定领域中的高效、精准应用，从而推动科技进步和产业发展。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MOFs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在催化反应中的作用机制是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MOFs在催化反应中的作用机制通常涉及其高比表面积和活性位点，如金属簇或功能化有机连接器。这些活性位点可以促进各种化学反应，包括氧化还原反应、酸碱催化和有机转化。MOFs的孔隙结构也有助于底物分子的扩散和反应产物的去除。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MOFs在催化反应中的作用机制主要是通过其特殊结构和孔道提供活性中心，促进反应分子的接触和相互作用，从而加速化学反应的进程。同时，MOFs的孔径大小与反应产物的分子大小相适应时，能够优化催化性能，提高反应的选择性和效率。</t>
+    </r>
+  </si>
+  <si>
+    <t>过渡金属如何催化有机反应？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过渡金属催化有机反应通常涉及多步过程，其中金属中心在不同的氧化态之间变化，形成中间体，并促进反应的进行。这些金属可以提供或接受电子，促使化学键的形成和断裂，从而降低反应的活化能，加速反应速率。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过渡金属催化有机反应主要通过与底物形成配位键或氢键，活化底物分子，降低反应活化能，从而促进反应的进行。此外，过渡金属催化剂还能通过改变反应路径或选择性，提高反应的产率和效率，实现高效、高选择性的有机合成。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是光伏效应，它如何用于太阳能电池？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光伏效应是指在光照条件下，特定材料（如半导体）产生电压或电流的现象。在太阳能电池中，当光照射到半导体材料上时，激发电子从价带跃迁到导带，产生自由电子和空穴，从而产生电流，这是太阳能电池转换太阳能为电能的基础。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光伏效应指光照使不均匀半导体或半导体与金属结合的不同部位之间产生电位差的现象。在太阳能电池中，光伏效应将太阳能转化为直流电能，通过连接在电池两端的导线输出电能，供电给各种电子设备。</t>
+    </r>
+  </si>
+  <si>
+    <t>气相催化与液相催化在应用中有何不同？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气相催化是在气体状态下进行的催化反应，通常用于处理挥发性有机化合物或气体污染物。液相催化发生在液体介质中，适用于液体反应物的转化。气相催化的优点是传质限制较小，易于操作和控制；而液相催化可以提供更均匀的反应环境和更高的反应物浓度。每种方法的选择依赖于特定反应的需求和条件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气相催化与液相催化在应用中的主要不同在于反应环境和对象。气相催化主要应用于气相反应，如氧化、加氢等，催化剂与气体相互作用方便，反应速率快。而液相催化则多用于含极性官能团的有机物反应，催化剂与反应物分子接近，反应选择性高。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是稀有气体，它们在工业中的应用是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稀有气体包括氦、氖、氩、氪、氙和放射性的氡。这些元素化学性质不活泼，通常以单原子气态形式存在。工业应用中，氦用于低温制冷（如MRI扫描仪）和气体混合物（如潜水和气球）。氖常用于霓虹灯和激光。氩用于焊接和金属加工中的惰性气体保护。氪和氙用于高效照明和某些科学研究。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稀有气体是指元素周期表上所有0族元素对应的气体单质，它们在工业中有广泛应用。例如，氦气用于气体检测、焊接保护等；氖气用于激光器、广告招牌等；氪气用于照明、核磁共振成像等。这些应用均得益于稀有气体独特的物理和化学性质。</t>
+    </r>
+  </si>
+  <si>
+    <t>放射性元素的基本性质和常见类型有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放射性元素是那些不稳定的原子核会自发放射能量和粒子的元素。常见的放射性元素包括铀、钚和钍。它们的基本性质包括通过α衰变、β衰变或γ射线发射来达到稳定状态的能力。这些元素主要用于医疗、能源生产和科学研究。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放射性元素的基本性质是它们能够自发地从不稳定的原子核内部放出粒子或射线，同时释放能量，最终衰变形成稳定的元素。常见类型包括天然放射性元素如铀、镭和人工放射性元素如锝、钷等。</t>
+    </r>
+  </si>
+  <si>
+    <t>无机化学中的数据挖掘技术有哪些，它们如何应用？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稀土基超导材料，如含稀土元素的铜氧化物高温超导体，目前是研究的热点。这些材料在相对较高的温度下表现出超导性，减少了冷却成本。研究正在寻求提高这些材料的临界温度和临界磁场，扩大其在电力输送、磁共振成像（MRI）和量子计算等领域的应用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无机化学中的数据挖掘技术包括聚类分析、关联规则挖掘、分类与回归等。这些技术可应用于化合物性质预测、反应路径优化及材料设计等领域，通过分析大量数据揭示规律，提高研发效率，推动无机化学领域的创新发展。</t>
+    </r>
+  </si>
+  <si>
+    <t>如何在无机化学教育中加强跨学科的链接和应用？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在无机化学教育中加强跨学科的链接和应用，可以通过引入相关领域的案例和实践，促进学生对无机化学与其他学科交叉点的理解。同时，鼓励学生参与跨学科的研究项目，培养他们的综合能力和创新思维，从而更好地适应未来科学发展的需要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在教学中强调无机化学与其他学科（如物理、生物、环境科学）的联系，通过跨学科项目和研究活动，增强学生理解无机化学概念在不同领域的应用。</t>
+    </r>
+  </si>
+  <si>
+    <t>无机材料在太阳能电池中的应用有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无机材料在太阳能电池中的应用主要是作为光吸收层，将太阳光转换为电能。这些材料通常具有较宽的带隙范围，可以有效吸收太阳光谱的不同部分。常见的无机光电材料包括硅、铜铟镓硒（CIGS）、镉碲（CdTe）和钙钛矿材料等。它们因具有良好的光吸收性能、较高的光电转换效率和稳定的化学性质，在太阳能电池领域得到广泛应用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无机材料在太阳能电池中的应用广泛，主要包括钙钛矿材料、二氧化钛、硒化铜等，它们用于提高太阳能电池的光电转换效率。无机材料具有优秀的电子传输速度、光吸收范围以及稳定性和耐久性，因此成为太阳能电池的主流应用材料。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是热机，它如何工作？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热机是一种设备，能将热能转换为机械能。它通过从高温热源吸收热量，执行机械功，再将部分热量排放到低温热库的过程实现这一转换。热机的工作基于热力学第一定律（能量守恒）和第二定律（熵增原理）。典型的热机包括汽车引擎和蒸汽涡轮机，它们通过循环过程（如奥托循环、卡诺循环）高效地转换能量。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热机是指将燃料的化学能转化成内能再转化成机械能的机械设备，如蒸汽机、汽轮机、燃气轮机、内燃机、喷气发动机等。它通过气体受热膨胀对外做功，将热能转化为机械能，以满足不同应用领域的长时间热能供给需求。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量子化学的基本原理是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量子化学基于量子力学原理，研究原子和分子的电子结构及其与能量变化的关系。核心是薛定谔方程，描述电子在原子或分子中的行为。通过求解此方程，可以得到电子的能量态和分布，进而预测和解释化学反应的机制、物质的性质等。量子化学是解释微观世界中化学现象的重要工具。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量子化学的基本原理基于量子力学，涉及波粒二象性、不确定性原理及波函数等核心概念。它描述微观粒子的运动和相互作用，通过求解薛定谔方程得到系统能级和波函数，进而研究分子的结构、性能及其反应机制，是理论化学的重要分支。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是中间体和过渡态？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在化学反应中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中间体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一种短暂存在的稳定或半稳定的分子，它在反应的初始物质和最终产品之间形成并最终转化为产品。而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过渡态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则是化学反应路径上的一个能量最高点，代表了从反应物向产品转化过程中的一个瞬间状态，通常存在于中间体形成的过程中。过渡态不稳定，不能被直接观察到。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间体是指在化学反应中产生的中间物质，它们在整个反应进程中并未完全消耗，是合成复杂分子或药物时的关键步骤。过渡态则是反应物体系转变为产物体系过程中能量最高的状态，它不稳定且不能分离出来，其能量与反应物的差值称为活化能。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱学在材料科学中的应用有哪些？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱学在材料科学中的应用广泛，包括分析材料的化学成分、探测不同元素的存在、确定材料的结构和相态。它也用于研究材料的光学性质，如吸收和发射特性，以及监测材料在加工过程中的变化，如温度和压力的影响。这些信息对于开发新材料和改善现有材料的性能至关重要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱学在材料科学中广泛应用，如紫外可见光谱用于研究材料的能带结构和吸收峰信息，红外光谱揭示材料的化学键和分子结构，拉曼光谱研究晶体的振动模式。这些技术为材料设计、性能优化和失效分析提供了重要依据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面活性剂如何影响溶液中的表面性能？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面活性剂通过其分子结构的两亲性（亲水头和疏水尾）降低水和其他液体的表面张力。当表面活性剂分子在液体表面聚集时，它们的疏水尾部向空气伸展，而亲水头部留在水中。这种排列改变了表面的性质，使液体更容易扩展或润湿其他物质，如在清洁、乳化和泡沫形成等过程中所见。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面活性剂通过降低溶液的表面张力、改善溶液的表面溶度和本体溶度之间的关系，以及引入气泡形成泡沫等方式，显著影响溶液中的表面性能。同时，它们还能提高水溶液的稳定性，使其在实际应用中更加可靠。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是密度泛函理论（DFT）？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密度泛函理论（DFT）是一种量子力学方法，用于研究多电子系统（如分子和凝聚态系统）的电子结构。它基于密度泛函假设，即系统的所有性质都可以通过其电子密度来描述。DFT将复杂的多体问题简化为以电子密度为主要变量的泛函问题，使得计算成为可能，广泛应用于物理、化学和材料科学领域。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密度泛函理论（DFT）是一种基于量子力学的方法，用于计算原子、分子和固体电子结构。它将电子密度视为基本变量，通过最小化系统总能量得到基态电子密度分布，进而获得系统基态能量和其他性质。DFT在物理和化学领域具有广泛应用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学在水处理中的应用是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学在水处理中的应用包括电絮凝、电氧化、电还原和电解等技术。这些方法通过电流作用于水中，可有效去除有害化学物质、重金属和有机污染物。电絮凝利用电流诱导污染物絮凝，便于去除；电氧化和电还原通过电极反应分解污染物；电解则可产生消毒剂，如次氯酸钠，用于杀菌和消毒。这些技术环保高效，常用于工业废水和饮用水处理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电化学在水处理中的应用广泛，包括电化学氧化、电解还原、电沉积、电吸附和电解消毒等多种类型。通过控制电极、电解质和电流等条件，实现水中杂质的去除、水质的改善等目的，具有经济、高效、安全等优点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量子统计力学与经典统计力学有何不同？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量子统计力学与经典统计力学的主要区别在于处理粒子系统的方式。量子统计力学基于量子力学原理，适用于原子和亚原子粒子，特别是在极低温度下。它考虑粒子的波动性和量子态的不可区分性。经典统计力学适用于宏观粒子系统，忽略量子效应，假设粒子是可区分的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量子统计力学与经典统计力学的主要不同在于对微观粒子的描述：量子统计力学基于量子力学，粒子能量分立且全同，需考虑玻色子和费米子的差异；而经典统计力学基于经典力学，粒子能量连续且定域可分辨。此外，两者在描述熵时也有所不同。</t>
+    </r>
+  </si>
+  <si>
+    <t>在分子模拟中，什么是溶剂化效应，如何模拟？</t>
+  </si>
+  <si>
+    <t>溶剂化效应是指溶剂分子对溶质分子性质的影响，如电荷分布、结构和反应性。在分子模拟中，常通过显式或隐式方法模拟。显式方法直接包括溶剂分子模型，而隐式方法使用数学算法模拟溶剂环境的平均效应，如使用连续介电场。这两种方法都能有效地描绘溶剂化过程对溶质分子的影响。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溶剂化效应是指溶剂对溶质分子的性质及其参与的化学反应产生的影响。在分子模拟中，可通过显式溶剂化模型直接考虑溶剂分子与反应中心的作用，或用隐式溶剂化模型将溶剂效应视为溶质分子在连续介质中的分布来模拟。</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是立体化学，它如何影响分子的化学性质？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立体化学是研究分子中原子的三维排列及其对化学反应性和物理性质的影响的科学。分子的空间构型可以影响分子间的相互作用、光学活性和反应途径，因此立体化学对药物设计、合成化学和生物分子的功能研究至关重要。分子的立体构型决定了其与其他分子相互作用的特异性，进而影响其化学反应的选择性和速率。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立体化学是研究分子三维结构及其与性质、反应行为关系的学科。分子中原子的空间排列方式不同，其化学性质也会不同。立体异构体、空间位阻效应和反应立体化学等因素均影响分子的反应速率、产物的构型和产率等。因此，立体化学对理解分子行为和化学反应至关重要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非线性振子中的倍周期分岔是如何发生的？</t>
+    </r>
+  </si>
+  <si>
+    <t>在非线性振子中，倍周期分岔是当系统参数（如驱动力的幅度）经过临界值变化时发生的现象。在这种分岔中，系统的周期行为突然从一个周期跳变到其两倍的周期。例如，从一个周期到两个周期，然后是四个周期，依此类推。这种现象是混沌行为的前兆，表明系统正在向混沌状态过渡。倍周期分岔展示了系统动态的复杂性和对初始条件或参数变化的敏感性。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非线性振子中的倍周期分岔发生在系统参数变化时，导致振动周期突然加倍。这通常由于系统稳定性丧失，使得原本稳定的周期解变得不稳定，同时出现新的两倍周期的稳定解。此现象在物理学、生物学等领域广泛存在，对理解复杂系统行为至关重要。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在凝聚态化学中，相变是如何理解和分类的？</t>
+    </r>
+  </si>
+  <si>
+    <t>在凝聚态化学中，相变是指物质从一种相（如固体、液体、气体）转变为另一种相的过程。相变通常分为一级相变和二级相变。一级相变涉及潜热，伴随着热力学性质（如体积和熵）的突变；而二级相变不涉及潜热，物质的对称性和序参数在临界点附近发生连续变化，但没有宏观性质的突变。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在凝聚态化学中，相变是指物质由一种状态向另一种状态转变的过程，主要分类包括热相变（如固液相变、液气相变）和压相变（如固体的压缩与展开）。这些相变过程受到热力学规律的制约，并伴随着物质内部微观粒子排列和结构的变化。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是高分子的相分离现象？</t>
+    </r>
+  </si>
+  <si>
+    <t>高分子的相分离现象是指在高分子混合物中，由于分子间相互作用的差异，高分子组分之间发生分离，形成具有不同物理或化学性质的微观区域的过程。这一现象常见于共混物、共聚物中，导致材料内部形成相互独立的相，如聚合物共混物中的富集区。相分离对材料的力学性能、透明度、热稳定性等属性有重要影响。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高分子相分离现象是指在高分子混合物或溶液中，由于热力学或动力学原因，不同高分子材料之间相互作用弱或随着温度变化自由能差异增大，导致一种相从另一种相中分离出来的现象。这种相分离是高分子物理学中的重要概念，对于理解高分子材料的结构和性能具有重要意义。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是生物大分子的二级结构？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0D0D0D"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物大分子的二级结构是指蛋白质和核酸等大分子中局部折叠的规则排列。在蛋白质中，二级结构主要包括α-螺旋、β-折叠和随机卷曲等形式，这些结构通过氢键在相邻的氨基酸残基间形成。这一级别的结构为大分子的三维形态和功能提供了基础框架。在核酸中，二级结构主要涉及碱基对的互补配对，如DNA的双螺旋结构。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物大分子的二级结构是指生物巨分子，如蛋白质及核酸（DNA或RNA），在原子量级结构下的局部区段的三维通式。它不涉及原子具体位置的描述，而是通过氢键等相互作用，形成稳定的空间结构，如α-螺旋、β-折叠等，是理解其功能和性质的关键。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水处理中的高级氧化过程（AOPs）是什么？</t>
+    </r>
+  </si>
+  <si>
+    <t>高级氧化过程（AOPs）是水处理技术，通过生成高反应性的氧化剂，如羟基自由基，来降解难以去除的有机污染物。这些氧化剂能有效分解污染物至无害物质。AOPs通常涉及紫外光、臭氧、过氧化氢等，用于处理工业废水、城市污水和饮用水，尤其针对持久性有机污染物。这种方法能显著提高水质，减少环境风险。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高级氧化过程（AOPs）在水处理中是一种通过产生强氧化剂（如羟基自由基）来处理有机和有害污染物的技术。它利用这些强氧化剂与污染物发生反应，将其降解为无害物质，具有高效、环保的特点，广泛应用于废水处理和饮用水处理等领域。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超导材料的特性及其应用是什么？</t>
+    </r>
+  </si>
+  <si>
+    <t>超导材料的主要特性是在低于临界温度时电阻消失和完美导电，以及能排斥磁场（迈斯纳效应）。这使得超导材料在多个领域有广泛应用，包括制造磁悬浮列车、磁共振成像（MRI）设备、粒子加速器和电力传输系统中的超导电缆。这些应用利用超导材料高效的能量传输和强大的磁场控制能力。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超导材料具有零电阻和完全抗磁性的特性，能够无损耗地传输电能，并抵抗外部磁场的干扰。它在能源、医疗、交通和通信等领域有广泛应用，如制造超导电缆、核磁共振仪、磁悬浮列车和微波滤波器等，能够提高能源利用效率、医疗诊断准确性和交通效率。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是振荡剪切实验，它展示了什么信息？</t>
+    </r>
+  </si>
+  <si>
+    <t>振荡剪切实验是一种材料测试方法，用于研究材料在循环或振荡剪切力作用下的流变性质。在此实验中，材料样本被施加周期性的剪切变形，并测量其应答（如应力）。这种测试能提供材料的弹性模量和粘性模量，展示材料的固体和流体行为特性，如黏弹性和模量的频率依赖性。这些信息对于了解材料在动态负载下的表现至关重要。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>振荡剪切实验是一种通过施加正弦剪切应变来测定物质响应应力的实验方法。该实验能展示物质的粘弹性特性，包括储存模量（弹性模量）、损耗模量（粘性模量）以及复合模量等关系，对于了解物质在高应变下的非线性行为具有重要意义。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光催化剂的作用机理是什么？</t>
+    </r>
+  </si>
+  <si>
+    <t>光催化剂通过吸收光能激发电子，从而产生电子和空穴对。这些电子和空穴对分别在催化剂的表面发生还原和氧化反应，分解水分子或有机物，从而生成自由基等活性物种。这些活性物种能够进一步参与化学反应，如分解污染物或杀死微生物，从而实现环境净化或能量转换等效果。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光催化剂的作用机理基于光吸收和电子激发，光催化剂吸收光能后，其电子从价带跃迁至导带，形成光生电子和空穴。这些活性物种与反应物相互作用，加速反应速率，从而实现光催化净化污染物、物质合成和转化等目的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超声波如何影响液体中的气体溶解度？</t>
+    </r>
+  </si>
+  <si>
+    <t>超声波通过其振动和压力波的作用，可以增加液体中的气体溶解度。当超声波传播时，它会在液体中产生微小的气泡（空化效应），这些气泡在压力波的作用下快速扩张和收缩。这种动态过程增加了液体与气体之间的接触面积，从而促进了气体的溶解。此外，超声波还可以打破液体中的分子结构，提高混合效率，进一步增强气体的溶解。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超声波对液体中的气体溶解度有显著影响。超声波在液体中传播时，其振动能量能够促进气体分子与液体分子的相互作用，从而增加气体在液体中的溶解度。此外，超声波还能产生局部高压和微射流效应，进一步促进气体的溶解。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在化学热力学中，什么是焓变？</t>
+    </r>
+  </si>
+  <si>
+    <t>在化学热力学中，焓变（ΔH）描述了在恒压下系统释放或吸收热量的量。焓变是一个热力学状态函数，常用于表征化学反应或物理过程中的能量变化。当焓变为负值时，表明过程是放热的（放出热量），称为放热反应；当焓变为正值时，表明过程是吸热的（吸收热量），称为吸热反应。焓变是理解和计算化学反应中能量转换的关键参数。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在化学热力学中，焓变（ΔH）描述的是系统发生一个过程时焓的增量，即物体焓的变化量。焓是物体的一个热力学能状态函数，表示系统内能加上其体积与外界作用于该系统的压强的乘积的总和。焓变是制约化学反应能否发生的重要因素之一。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是光电化学水分解？</t>
+    </r>
+  </si>
+  <si>
+    <t>光电化学水分解是一种利用光能将水分解成氢气和氧气的技术。这一过程主要通过半导体材料制成的光电极在光照条件下实现。当光照射到光电极上时，产生的光生电荷能够驱动水的氧化还原反应，从而生成氢气和氧气。这种技术是将太阳能直接转化为化学能的有效方式，被视为可再生能源技术中的一种重要发展方向。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光电化学水分解是一种利用光能将水分解成氢气和氧气的过程。在此过程中，光能被吸收并激发出电子，这些电子被输送到催化剂表面，在外部电场的作用下，电子传输到气体室中，与水反应生成氢气和氧气。这种方法可用于生产清洁的氢能源。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低温下固体反应的特点是什么？</t>
+    </r>
+  </si>
+  <si>
+    <t>低温下固体反应的特点主要包括反应速率通常较慢，因为分子运动减少，减弱了分子间的碰撞机率和反应概率。此外，反应路径和机制可能会发生变化，有时需要催化剂或特定条件来促进反应。低温条件下，某些反应可能完全不发生，或者生成稳定的中间产物，导致反应机理与高温时不同。这些特点使得低温固体反应在化学合成和材料科学中具有特别的应用价值。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低温下固体反应的特点主要表现在反应温度显著降低，通常在室温或接近室温下进行，这使得操作和控制更为便利。此外，低温固相反应还具有不使用溶剂、高选择性、高产率、污染少、节省能源以及合成工艺简单等特点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何模拟非平衡态下的化学反应？</t>
+    </r>
+  </si>
+  <si>
+    <t>模拟非平衡态下的化学反应通常使用动力学模型，如化学动力学方程或反应动力学网络。这些模型结合速率方程和浓度变化来描述反应进程。常用的数学工具包括常微分方程（ODE）或偏微分方程（PDE），通过数值方法如有限差分法或有限元法进行求解。此外，蒙特卡洛模拟和分子动力学模拟也是研究复杂反应系统中非平衡过程的有效工具。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟非平衡态下的化学反应，可以采用基于非平衡态动力学模型的模拟方法，通过建立一系列非平衡态动力学方程，计算反应物浓度随时间的变化和反应过程的速率常数等信息。这种方法适用于模拟工业反应系统和复杂反应体系，具有较高的通用性。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在纳米化学中，表面修饰技术有哪些？</t>
+    </r>
+  </si>
+  <si>
+    <t>在纳米化学中，表面修饰技术用于改变纳米材料的表面性质，常见的技术包括硅烷化、PEG化（聚乙二醇修饰）、生物分子接枝（如蛋白质或抗体），以及通过共价或非共价作用力附着功能性分子。这些方法可以提高纳米颗粒的稳定性、生物相容性和靶向性，广泛应用于药物输送、生物探测和催化剂设计等领域。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在纳米化学中，表面修饰技术包括化学修饰法（如硅烷偶联剂修饰、磷酸盐修饰等）、生物修饰法（如生物功能分子修饰法、生物矿化法等）以及物理修饰法（如等离子体修饰法、溅射法等）。这些方法能够改善纳米材料的分散性、稳定性和反应活性，从而实现特定的应用需求。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胶体颗粒之间的范德华力和电荷排斥力如何平衡？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胶体颗粒间的范德华力与电荷排斥力之间达到平衡，是通过胶体颗粒表面电荷的调节实现的。当电荷排斥力足够强时，能克服范德华吸引力，使胶体颗粒保持稳定分散状态；反之，若电荷排斥力减弱，范德华力则主导，导致颗粒团聚。因此，通过调控表面电荷，可实现两种力的平衡。</t>
+    </r>
+  </si>
+  <si>
+    <t>胶体颗粒之间的范德华力和电荷排斥力在平衡时，取决于颗粒之间的距离和它们的表面电荷密度。当颗粒间距离较远时，范德华力主导，促使颗粒聚集。而当颗粒靠近时，电荷排斥力会增强，阻止颗粒过度聚集。这种平衡使得颗粒在溶液中形成稳定的分散体系。</t>
+  </si>
+  <si>
+    <t>什么是氢化反应，在有机金属催化中的作用是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <color rgb="FF05073B"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢化反应是有机化合物与氢分子的反应，通过加氢还原将不饱和化合物转化为相应的饱和化合物。在有机金属催化中，氢化反应利用金属催化剂加速这一过程，改善反应选择性，提高反应物利用率和反应速率，从而推动有机合成的进步。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢化反应是在有机金属催化剂作用下，将氢气添加到有机底物的双键或三键上的过程，用于生成饱和化合物。</t>
     </r>
   </si>
 </sst>
@@ -325,7 +2887,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +2917,12 @@
       <sz val="11.5"/>
       <color rgb="FF05073B"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -828,137 +3396,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +3552,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,10 +4094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1634,6 +4217,1007 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" ht="15.6" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="16.2" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" ht="16.2" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" ht="16.2" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" ht="16.2" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" ht="16.2" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" ht="16.2" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" ht="15.6" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" ht="15.6" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" ht="16.2" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" ht="16.2" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" ht="15.6" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" ht="16.2" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" ht="15.6" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" ht="16.2" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" ht="16.2" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" ht="15.6" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" ht="16.2" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" ht="15.6" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" ht="15.6" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" ht="15.6" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" ht="16.2" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" ht="15.6" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" ht="15.6" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" ht="16.2" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" ht="15.6" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" ht="15.6" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" ht="15.6" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" ht="16.2" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" ht="15.6" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" ht="15.6" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" ht="15.6" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" ht="15.6" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" ht="15.6" spans="1:3">
+      <c r="A76" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" ht="15.6" spans="1:3">
+      <c r="A77" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" ht="15.6" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" ht="15.6" spans="1:3">
+      <c r="A79" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" ht="15.6" spans="1:3">
+      <c r="A80" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" ht="19.2" spans="1:3">
+      <c r="A81" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" ht="15.6" spans="1:3">
+      <c r="A82" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" ht="15.6" spans="1:3">
+      <c r="A83" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:3">
+      <c r="A84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" ht="15.6" spans="1:3">
+      <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" ht="15.6" spans="1:3">
+      <c r="A86" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" ht="15.6" spans="1:3">
+      <c r="A87" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" ht="15.6" spans="1:3">
+      <c r="A88" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" ht="19.2" spans="1:3">
+      <c r="A89" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" ht="16.2" spans="1:3">
+      <c r="A90" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" ht="15.6" spans="1:3">
+      <c r="A91" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" ht="15.6" spans="1:3">
+      <c r="A92" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" ht="15.6" spans="1:3">
+      <c r="A93" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" ht="15.6" spans="1:3">
+      <c r="A94" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B94" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" ht="16.2" spans="1:3">
+      <c r="A95" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" ht="15.6" spans="1:3">
+      <c r="A96" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" ht="15.6" spans="1:3">
+      <c r="A97" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" ht="19.2" spans="1:3">
+      <c r="A98" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" ht="15.6" spans="1:3">
+      <c r="A99" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" ht="15.6" spans="1:3">
+      <c r="A100" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" ht="15.6" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
